--- a/predictions/Прогнозы_GP_Combo_2.xlsx
+++ b/predictions/Прогнозы_GP_Combo_2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17867416.50858171</v>
+        <v>13916102.57693793</v>
       </c>
       <c r="C2" t="n">
-        <v>17586957.01537117</v>
+        <v>13703180.31773463</v>
       </c>
       <c r="D2" t="n">
-        <v>17300973.3831766</v>
+        <v>13552837.63058013</v>
       </c>
       <c r="E2" t="n">
-        <v>16991400.4440186</v>
+        <v>13446682.26678627</v>
       </c>
       <c r="F2" t="n">
-        <v>16678232.78580893</v>
+        <v>13371727.45776729</v>
       </c>
       <c r="G2" t="n">
-        <v>16355575.17880263</v>
+        <v>13318803.24588489</v>
       </c>
       <c r="H2" t="n">
-        <v>16026566.0561747</v>
+        <v>13281434.73686067</v>
       </c>
       <c r="I2" t="n">
-        <v>15702594.32303791</v>
+        <v>13255050.03508741</v>
       </c>
       <c r="J2" t="n">
-        <v>15369730.43967881</v>
+        <v>13236420.95792354</v>
       </c>
       <c r="K2" t="n">
-        <v>15051535.67464275</v>
+        <v>13223268.11054171</v>
       </c>
       <c r="L2" t="n">
-        <v>14726488.82865831</v>
+        <v>13213982.01880442</v>
       </c>
       <c r="M2" t="n">
-        <v>14417879.39466429</v>
+        <v>13207426.21970573</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2413213.974387415</v>
+        <v>2850392.404673237</v>
       </c>
       <c r="C3" t="n">
-        <v>2413216.057662355</v>
+        <v>2850392.430542447</v>
       </c>
       <c r="D3" t="n">
-        <v>2413218.12455616</v>
+        <v>2850392.456371311</v>
       </c>
       <c r="E3" t="n">
-        <v>2413220.175068703</v>
+        <v>2850392.482159797</v>
       </c>
       <c r="F3" t="n">
-        <v>2413222.209199864</v>
+        <v>2850392.50790789</v>
       </c>
       <c r="G3" t="n">
-        <v>2413224.226949517</v>
+        <v>2850392.533615675</v>
       </c>
       <c r="H3" t="n">
-        <v>2413226.228317537</v>
+        <v>2850392.559283074</v>
       </c>
       <c r="I3" t="n">
-        <v>2413228.213303804</v>
+        <v>2850392.584910106</v>
       </c>
       <c r="J3" t="n">
-        <v>2413230.181908202</v>
+        <v>2850392.610496782</v>
       </c>
       <c r="K3" t="n">
-        <v>2413232.134130608</v>
+        <v>2850392.636043094</v>
       </c>
       <c r="L3" t="n">
-        <v>2413234.069970907</v>
+        <v>2850392.661549047</v>
       </c>
       <c r="M3" t="n">
-        <v>2413235.98942898</v>
+        <v>2850392.687014643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15501131.72003292</v>
+        <v>12486709.59665656</v>
       </c>
       <c r="C4" t="n">
-        <v>15312943.25956902</v>
+        <v>12749175.55943084</v>
       </c>
       <c r="D4" t="n">
-        <v>15127904.29855968</v>
+        <v>13007076.1893737</v>
       </c>
       <c r="E4" t="n">
-        <v>14945967.04376978</v>
+        <v>13260236.32908043</v>
       </c>
       <c r="F4" t="n">
-        <v>14767072.46145928</v>
+        <v>13508496.26457968</v>
       </c>
       <c r="G4" t="n">
-        <v>14591177.92307949</v>
+        <v>13751711.00792009</v>
       </c>
       <c r="H4" t="n">
-        <v>14418224.75245768</v>
+        <v>13989749.60657206</v>
       </c>
       <c r="I4" t="n">
-        <v>14248170.56773983</v>
+        <v>14222494.47875053</v>
       </c>
       <c r="J4" t="n">
-        <v>14080961.57228814</v>
+        <v>14449840.77379367</v>
       </c>
       <c r="K4" t="n">
-        <v>13916554.43679379</v>
+        <v>14671695.75675976</v>
       </c>
       <c r="L4" t="n">
-        <v>13754898.50722772</v>
+        <v>14887978.21642858</v>
       </c>
       <c r="M4" t="n">
-        <v>13595949.96284901</v>
+        <v>15098617.89592081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3365536.300766334</v>
+        <v>12316092.10112943</v>
       </c>
       <c r="C5" t="n">
-        <v>3437477.847640432</v>
+        <v>12316096.60926328</v>
       </c>
       <c r="D5" t="n">
-        <v>3508235.989204019</v>
+        <v>12316100.81983071</v>
       </c>
       <c r="E5" t="n">
-        <v>3577765.845720708</v>
+        <v>12316104.72916292</v>
       </c>
       <c r="F5" t="n">
-        <v>3646026.2234089</v>
+        <v>12316108.3338536</v>
       </c>
       <c r="G5" t="n">
-        <v>3712979.453402564</v>
+        <v>12316111.63076191</v>
       </c>
       <c r="H5" t="n">
-        <v>3778591.236379102</v>
+        <v>12316114.61701519</v>
       </c>
       <c r="I5" t="n">
-        <v>3842830.492676951</v>
+        <v>12316117.29001153</v>
       </c>
       <c r="J5" t="n">
-        <v>3905669.217730053</v>
+        <v>12316119.64742194</v>
       </c>
       <c r="K5" t="n">
-        <v>3967082.342651792</v>
+        <v>12316121.68719248</v>
       </c>
       <c r="L5" t="n">
-        <v>4027047.599805631</v>
+        <v>12316123.40754594</v>
       </c>
       <c r="M5" t="n">
-        <v>4085545.393204823</v>
+        <v>12316124.80698352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9190558.066921243</v>
+        <v>3103370.284291955</v>
       </c>
       <c r="C6" t="n">
-        <v>8899635.279559489</v>
+        <v>3103356.177623647</v>
       </c>
       <c r="D6" t="n">
-        <v>8617921.516023062</v>
+        <v>3103381.11819102</v>
       </c>
       <c r="E6" t="n">
-        <v>8345125.268999716</v>
+        <v>3103392.206933368</v>
       </c>
       <c r="F6" t="n">
-        <v>8080964.258703886</v>
+        <v>3103383.208650053</v>
       </c>
       <c r="G6" t="n">
-        <v>7825165.140783684</v>
+        <v>3103393.254261564</v>
       </c>
       <c r="H6" t="n">
-        <v>7577463.223473953</v>
+        <v>3103394.604514509</v>
       </c>
       <c r="I6" t="n">
-        <v>7337602.1937027</v>
+        <v>3103409.443255625</v>
       </c>
       <c r="J6" t="n">
-        <v>7105333.851867522</v>
+        <v>3103422.82687595</v>
       </c>
       <c r="K6" t="n">
-        <v>6880417.855007541</v>
+        <v>3103389.241299313</v>
       </c>
       <c r="L6" t="n">
-        <v>6662621.468105118</v>
+        <v>3103425.80478656</v>
       </c>
       <c r="M6" t="n">
-        <v>6451719.323259987</v>
+        <v>3103413.705593217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2280476.953004123</v>
+        <v>6215722.871150658</v>
       </c>
       <c r="C7" t="n">
-        <v>1951497.347210699</v>
+        <v>6295538.390510346</v>
       </c>
       <c r="D7" t="n">
-        <v>1844562.072814826</v>
+        <v>6370502.04502221</v>
       </c>
       <c r="E7" t="n">
-        <v>1801507.720598537</v>
+        <v>6440582.304329414</v>
       </c>
       <c r="F7" t="n">
-        <v>1771452.420004941</v>
+        <v>6505764.72658254</v>
       </c>
       <c r="G7" t="n">
-        <v>1737673.840969647</v>
+        <v>6566050.509144556</v>
       </c>
       <c r="H7" t="n">
-        <v>1708302.943979725</v>
+        <v>6621455.129317641</v>
       </c>
       <c r="I7" t="n">
-        <v>1699640.228068313</v>
+        <v>6672007.070256708</v>
       </c>
       <c r="J7" t="n">
-        <v>1711374.137789791</v>
+        <v>6717746.627472583</v>
       </c>
       <c r="K7" t="n">
-        <v>1726435.210152375</v>
+        <v>6758724.791555015</v>
       </c>
       <c r="L7" t="n">
-        <v>1727809.221207794</v>
+        <v>6795002.20296221</v>
       </c>
       <c r="M7" t="n">
-        <v>1711749.814479463</v>
+        <v>6826648.174930023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>917930.4150342266</v>
+        <v>16537816.87773656</v>
       </c>
       <c r="C8" t="n">
-        <v>917863.9305388443</v>
+        <v>16522362.39351033</v>
       </c>
       <c r="D8" t="n">
-        <v>917797.4508588468</v>
+        <v>16506932.29210071</v>
       </c>
       <c r="E8" t="n">
-        <v>917730.9759938853</v>
+        <v>16491526.53503783</v>
       </c>
       <c r="F8" t="n">
-        <v>917664.5059436108</v>
+        <v>16476145.08391254</v>
       </c>
       <c r="G8" t="n">
-        <v>917598.040707675</v>
+        <v>16460787.90037629</v>
       </c>
       <c r="H8" t="n">
-        <v>917531.5802857287</v>
+        <v>16445454.94614105</v>
       </c>
       <c r="I8" t="n">
-        <v>917465.124677424</v>
+        <v>16430146.18297924</v>
       </c>
       <c r="J8" t="n">
-        <v>917398.6738824117</v>
+        <v>16414861.57272357</v>
       </c>
       <c r="K8" t="n">
-        <v>917332.2279003428</v>
+        <v>16399601.07726699</v>
       </c>
       <c r="L8" t="n">
-        <v>917265.7867308692</v>
+        <v>16384364.6585626</v>
       </c>
       <c r="M8" t="n">
-        <v>917199.350373643</v>
+        <v>16369152.27862355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>863494.7924978156</v>
+        <v>21975945.54573505</v>
       </c>
       <c r="C9" t="n">
-        <v>863514.7538404129</v>
+        <v>21977722.00056234</v>
       </c>
       <c r="D9" t="n">
-        <v>863534.6898687519</v>
+        <v>21986266.73813663</v>
       </c>
       <c r="E9" t="n">
-        <v>863554.6005767286</v>
+        <v>21978647.6746337</v>
       </c>
       <c r="F9" t="n">
-        <v>863574.4859583024</v>
+        <v>21942203.35532844</v>
       </c>
       <c r="G9" t="n">
-        <v>863594.3460073993</v>
+        <v>21882609.67448042</v>
       </c>
       <c r="H9" t="n">
-        <v>863614.1807179898</v>
+        <v>21820759.55256669</v>
       </c>
       <c r="I9" t="n">
-        <v>863633.9900840539</v>
+        <v>21779293.00660717</v>
       </c>
       <c r="J9" t="n">
-        <v>863653.7740995511</v>
+        <v>21767443.90028636</v>
       </c>
       <c r="K9" t="n">
-        <v>863673.5327585116</v>
+        <v>21775156.81269806</v>
       </c>
       <c r="L9" t="n">
-        <v>863693.2660549246</v>
+        <v>21780106.30597635</v>
       </c>
       <c r="M9" t="n">
-        <v>863712.9739828184</v>
+        <v>21761942.04640029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3501878.892974664</v>
+        <v>13668561.18703326</v>
       </c>
       <c r="C10" t="n">
-        <v>3501923.144197586</v>
+        <v>12004568.95752203</v>
       </c>
       <c r="D10" t="n">
-        <v>3501961.598250201</v>
+        <v>10466094.2359718</v>
       </c>
       <c r="E10" t="n">
-        <v>3501994.174663364</v>
+        <v>9060665.317128444</v>
       </c>
       <c r="F10" t="n">
-        <v>3502020.805290848</v>
+        <v>7791947.457089148</v>
       </c>
       <c r="G10" t="n">
-        <v>3502041.434451364</v>
+        <v>6659413.944422861</v>
       </c>
       <c r="H10" t="n">
-        <v>3502056.019044382</v>
+        <v>5658838.472304586</v>
       </c>
       <c r="I10" t="n">
-        <v>3502064.528639535</v>
+        <v>4783122.015776399</v>
       </c>
       <c r="J10" t="n">
-        <v>3502066.945539355</v>
+        <v>4023182.045257097</v>
       </c>
       <c r="K10" t="n">
-        <v>3502063.264815317</v>
+        <v>3368764.375491272</v>
       </c>
       <c r="L10" t="n">
-        <v>3502053.49431702</v>
+        <v>2809117.155479218</v>
       </c>
       <c r="M10" t="n">
-        <v>3502037.65465458</v>
+        <v>2333511.745102054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1831733.587477472</v>
+        <v>13246623.85834713</v>
       </c>
       <c r="C11" t="n">
-        <v>1827253.105932032</v>
+        <v>12413025.76815227</v>
       </c>
       <c r="D11" t="n">
-        <v>1822783.583794125</v>
+        <v>11646108.28751953</v>
       </c>
       <c r="E11" t="n">
-        <v>1818324.994256676</v>
+        <v>10940537.54662777</v>
       </c>
       <c r="F11" t="n">
-        <v>1813877.310578178</v>
+        <v>10291406.33893001</v>
       </c>
       <c r="G11" t="n">
-        <v>1809440.506082535</v>
+        <v>9694199.991795871</v>
       </c>
       <c r="H11" t="n">
-        <v>1805014.554158905</v>
+        <v>9144764.967206571</v>
       </c>
       <c r="I11" t="n">
-        <v>1800599.428261533</v>
+        <v>8639279.974121489</v>
       </c>
       <c r="J11" t="n">
-        <v>1796195.101909596</v>
+        <v>8174229.391604702</v>
       </c>
       <c r="K11" t="n">
-        <v>1791801.548687043</v>
+        <v>7746378.817870585</v>
       </c>
       <c r="L11" t="n">
-        <v>1787418.742242448</v>
+        <v>7352752.575193509</v>
       </c>
       <c r="M11" t="n">
-        <v>1783046.656288819</v>
+        <v>6990613.014229411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621803.6069102318</v>
+        <v>33990698.19651137</v>
       </c>
       <c r="C12" t="n">
-        <v>657561.3947246489</v>
+        <v>30576137.14569114</v>
       </c>
       <c r="D12" t="n">
-        <v>690077.8150774053</v>
+        <v>32081372.56762398</v>
       </c>
       <c r="E12" t="n">
-        <v>719802.7059184463</v>
+        <v>29321302.06261844</v>
       </c>
       <c r="F12" t="n">
-        <v>746804.9083890109</v>
+        <v>30921966.94486984</v>
       </c>
       <c r="G12" t="n">
-        <v>771503.4223323885</v>
+        <v>29361077.90694463</v>
       </c>
       <c r="H12" t="n">
-        <v>793912.1052017723</v>
+        <v>29920505.51530777</v>
       </c>
       <c r="I12" t="n">
-        <v>814439.9645641991</v>
+        <v>29916662.88780803</v>
       </c>
       <c r="J12" t="n">
-        <v>833045.6578277503</v>
+        <v>28997315.81481446</v>
       </c>
       <c r="K12" t="n">
-        <v>850098.011868504</v>
+        <v>30434618.13980767</v>
       </c>
       <c r="L12" t="n">
-        <v>865561.6344105455</v>
+        <v>28367030.96317528</v>
       </c>
       <c r="M12" t="n">
-        <v>879739.131398502</v>
+        <v>30618099.91383053</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1870218.482149074</v>
+        <v>34439273.93766967</v>
       </c>
       <c r="C13" t="n">
-        <v>1696688.2236176</v>
+        <v>34439273.83458412</v>
       </c>
       <c r="D13" t="n">
-        <v>1500302.05431768</v>
+        <v>34439273.71932632</v>
       </c>
       <c r="E13" t="n">
-        <v>1303097.445043448</v>
+        <v>34439273.59190972</v>
       </c>
       <c r="F13" t="n">
-        <v>1119544.660626648</v>
+        <v>34439273.45234918</v>
       </c>
       <c r="G13" t="n">
-        <v>957463.8498665058</v>
+        <v>34439273.30066096</v>
       </c>
       <c r="H13" t="n">
-        <v>819784.742972636</v>
+        <v>34439273.13686273</v>
       </c>
       <c r="I13" t="n">
-        <v>706261.9513620519</v>
+        <v>34439272.9609736</v>
       </c>
       <c r="J13" t="n">
-        <v>614837.7555867741</v>
+        <v>34439272.77301406</v>
       </c>
       <c r="K13" t="n">
-        <v>542606.3475766313</v>
+        <v>34439272.57300603</v>
       </c>
       <c r="L13" t="n">
-        <v>486436.3046935005</v>
+        <v>34439272.36097281</v>
       </c>
       <c r="M13" t="n">
-        <v>443335.4803638206</v>
+        <v>34439272.13693912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>651407.7399910463</v>
+        <v>91723.01643085601</v>
       </c>
       <c r="C14" t="n">
-        <v>650350.598577643</v>
+        <v>91722.22275815418</v>
       </c>
       <c r="D14" t="n">
-        <v>649295.1727532654</v>
+        <v>91721.42909231994</v>
       </c>
       <c r="E14" t="n">
-        <v>648241.4597337535</v>
+        <v>91720.63543335322</v>
       </c>
       <c r="F14" t="n">
-        <v>647189.4567394725</v>
+        <v>91719.841781254</v>
       </c>
       <c r="G14" t="n">
-        <v>646139.1609952943</v>
+        <v>91719.04813602217</v>
       </c>
       <c r="H14" t="n">
-        <v>645090.5697306024</v>
+        <v>91718.25449765772</v>
       </c>
       <c r="I14" t="n">
-        <v>644043.6801792628</v>
+        <v>91717.46086616055</v>
       </c>
       <c r="J14" t="n">
-        <v>642998.4895796445</v>
+        <v>91716.66724153061</v>
       </c>
       <c r="K14" t="n">
-        <v>641954.9951745945</v>
+        <v>91715.87362376787</v>
       </c>
       <c r="L14" t="n">
-        <v>640913.1942114234</v>
+        <v>91715.08001287223</v>
       </c>
       <c r="M14" t="n">
-        <v>639873.083941923</v>
+        <v>91714.28640884365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>749239.631000927</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>700697.7798270227</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>655300.8654902709</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>612845.1333445162</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>573140.0296306093</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>536007.3462153327</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>501280.4207411091</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>468803.3885965334</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>438430.483350352</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>410025.3825090307</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>383460.5956614808</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>358616.8922647591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1035754.753722077</v>
+        <v>5437937.041662253</v>
       </c>
       <c r="C16" t="n">
-        <v>977431.8075561124</v>
+        <v>5437937.178523816</v>
       </c>
       <c r="D16" t="n">
-        <v>908962.3363462688</v>
+        <v>5437937.314389782</v>
       </c>
       <c r="E16" t="n">
-        <v>834342.8371617389</v>
+        <v>5437937.449260134</v>
       </c>
       <c r="F16" t="n">
-        <v>757058.1036516407</v>
+        <v>5437937.58313488</v>
       </c>
       <c r="G16" t="n">
-        <v>679939.527646287</v>
+        <v>5437937.71601402</v>
       </c>
       <c r="H16" t="n">
-        <v>605150.2892161228</v>
+        <v>5437937.847897559</v>
       </c>
       <c r="I16" t="n">
-        <v>534239.3448281719</v>
+        <v>5437937.978785483</v>
       </c>
       <c r="J16" t="n">
-        <v>468227.6305534628</v>
+        <v>5437938.108677803</v>
       </c>
       <c r="K16" t="n">
-        <v>407704.2745850616</v>
+        <v>5437938.237574516</v>
       </c>
       <c r="L16" t="n">
-        <v>352920.0663646832</v>
+        <v>5437938.365475636</v>
       </c>
       <c r="M16" t="n">
-        <v>303871.513643821</v>
+        <v>5437938.492381128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3433553.69423705</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3073773.750991045</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2829874.482568924</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2664532.155255888</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2552444.548851194</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2476458.975684874</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2424947.416872862</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2390027.094755451</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2366354.176969488</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2350306.013535694</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2339426.765277137</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2332051.588475166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1040752.57431816</v>
+        <v>2766564.790682141</v>
       </c>
       <c r="C18" t="n">
-        <v>493979.6649691992</v>
+        <v>2766555.747650213</v>
       </c>
       <c r="D18" t="n">
-        <v>1004458.94115908</v>
+        <v>2766546.698926434</v>
       </c>
       <c r="E18" t="n">
-        <v>1238151.935164715</v>
+        <v>2766537.644489686</v>
       </c>
       <c r="F18" t="n">
-        <v>473728.7265500545</v>
+        <v>2766528.584328234</v>
       </c>
       <c r="G18" t="n">
-        <v>1067985.862967008</v>
+        <v>2766519.518439756</v>
       </c>
       <c r="H18" t="n">
-        <v>1329331.984876543</v>
+        <v>2766510.446831337</v>
       </c>
       <c r="I18" t="n">
-        <v>662832.8992101628</v>
+        <v>2766501.369519464</v>
       </c>
       <c r="J18" t="n">
-        <v>1216340.13475955</v>
+        <v>2766492.286529993</v>
       </c>
       <c r="K18" t="n">
-        <v>1218268.380894102</v>
+        <v>2766483.197898123</v>
       </c>
       <c r="L18" t="n">
-        <v>721827.6675040106</v>
+        <v>2766474.10366832</v>
       </c>
       <c r="M18" t="n">
-        <v>898284.4688177769</v>
+        <v>2766465.003894254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17485.32468844194</v>
+        <v>4837704.45440191</v>
       </c>
       <c r="C19" t="n">
-        <v>16818.44675366353</v>
+        <v>4835830.136634507</v>
       </c>
       <c r="D19" t="n">
-        <v>16177.10804898735</v>
+        <v>4833776.899266003</v>
       </c>
       <c r="E19" t="n">
-        <v>15560.22554649962</v>
+        <v>4831545.116852079</v>
       </c>
       <c r="F19" t="n">
-        <v>14966.86665655896</v>
+        <v>4829135.195912982</v>
       </c>
       <c r="G19" t="n">
-        <v>14396.13435202468</v>
+        <v>4826547.574788263</v>
       </c>
       <c r="H19" t="n">
-        <v>13847.16581213899</v>
+        <v>4823782.723480437</v>
       </c>
       <c r="I19" t="n">
-        <v>13319.13111813266</v>
+        <v>4820841.143487646</v>
       </c>
       <c r="J19" t="n">
-        <v>12811.23199857215</v>
+        <v>4817723.367625428</v>
       </c>
       <c r="K19" t="n">
-        <v>12322.7006225501</v>
+        <v>4814429.959837675</v>
       </c>
       <c r="L19" t="n">
-        <v>11852.79843889488</v>
+        <v>4810961.514996914</v>
       </c>
       <c r="M19" t="n">
-        <v>11400.81505964523</v>
+        <v>4807318.65869402</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2120124.783747331</v>
+        <v>2621310.412508865</v>
       </c>
       <c r="C20" t="n">
-        <v>2120122.642980899</v>
+        <v>2488137.598992637</v>
       </c>
       <c r="D20" t="n">
-        <v>2120120.423663218</v>
+        <v>2504040.103846621</v>
       </c>
       <c r="E20" t="n">
-        <v>2120118.126013353</v>
+        <v>2653098.33218258</v>
       </c>
       <c r="F20" t="n">
-        <v>2120115.750258096</v>
+        <v>2746493.317662144</v>
       </c>
       <c r="G20" t="n">
-        <v>2120113.296631953</v>
+        <v>2666204.34381105</v>
       </c>
       <c r="H20" t="n">
-        <v>2120110.765377112</v>
+        <v>2513752.456987977</v>
       </c>
       <c r="I20" t="n">
-        <v>2120108.156743425</v>
+        <v>2469005.115023952</v>
       </c>
       <c r="J20" t="n">
-        <v>2120105.470988377</v>
+        <v>2588182.08232953</v>
       </c>
       <c r="K20" t="n">
-        <v>2120102.708377068</v>
+        <v>2723763.784176258</v>
       </c>
       <c r="L20" t="n">
-        <v>2120099.869182183</v>
+        <v>2701959.464610429</v>
       </c>
       <c r="M20" t="n">
-        <v>2120096.953683959</v>
+        <v>2553284.892865468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966375.794121551</v>
+        <v>3318283.868599612</v>
       </c>
       <c r="C21" t="n">
-        <v>966543.1955071625</v>
+        <v>3259442.032710915</v>
       </c>
       <c r="D21" t="n">
-        <v>966771.9670027009</v>
+        <v>3203731.058119003</v>
       </c>
       <c r="E21" t="n">
-        <v>966429.1223899294</v>
+        <v>3152232.741244775</v>
       </c>
       <c r="F21" t="n">
-        <v>966401.5276687978</v>
+        <v>3099108.942970462</v>
       </c>
       <c r="G21" t="n">
-        <v>966708.8820546415</v>
+        <v>3053204.174924785</v>
       </c>
       <c r="H21" t="n">
-        <v>966612.9638542439</v>
+        <v>3004369.557751326</v>
       </c>
       <c r="I21" t="n">
-        <v>966353.6466404055</v>
+        <v>2961331.831495358</v>
       </c>
       <c r="J21" t="n">
-        <v>966774.9538468039</v>
+        <v>2918492.851620527</v>
       </c>
       <c r="K21" t="n">
-        <v>966621.1405450862</v>
+        <v>2876691.340660816</v>
       </c>
       <c r="L21" t="n">
-        <v>966278.5258193398</v>
+        <v>2839736.981001501</v>
       </c>
       <c r="M21" t="n">
-        <v>966693.9234549595</v>
+        <v>2799768.302965227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>350184.8524813624</v>
+        <v>10768378.14416214</v>
       </c>
       <c r="C22" t="n">
-        <v>354737.7579262881</v>
+        <v>10780371.56001019</v>
       </c>
       <c r="D22" t="n">
-        <v>353300.346660078</v>
+        <v>10758874.90280657</v>
       </c>
       <c r="E22" t="n">
-        <v>347852.2542148083</v>
+        <v>10691022.15688357</v>
       </c>
       <c r="F22" t="n">
-        <v>340111.3346638836</v>
+        <v>10582599.57158866</v>
       </c>
       <c r="G22" t="n">
-        <v>331309.0278643515</v>
+        <v>10455140.06967237</v>
       </c>
       <c r="H22" t="n">
-        <v>322227.1460777723</v>
+        <v>10337616.60525388</v>
       </c>
       <c r="I22" t="n">
-        <v>313309.461526877</v>
+        <v>10255648.3468593</v>
       </c>
       <c r="J22" t="n">
-        <v>304773.4077173435</v>
+        <v>10221433.70793911</v>
       </c>
       <c r="K22" t="n">
-        <v>296697.994385432</v>
+        <v>10228221.05867594</v>
       </c>
       <c r="L22" t="n">
-        <v>289085.1504198184</v>
+        <v>10252480.10680812</v>
       </c>
       <c r="M22" t="n">
-        <v>281899.0847590708</v>
+        <v>10263644.32282639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2882.074206650219</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2246.376151740737</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1750.8937845756</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1364.699782131272</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1063.688449725447</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>829.0710769458379</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>646.2031723720879</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>503.670374706643</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>392.5759841535682</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>305.9856427408613</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>238.4945013012125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>185.8898562736989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9801038.825631622</v>
+        <v>8049298.859849824</v>
       </c>
       <c r="C24" t="n">
-        <v>9780162.988465231</v>
+        <v>7898058.558732593</v>
       </c>
       <c r="D24" t="n">
-        <v>9756492.916800749</v>
+        <v>8340371.749206153</v>
       </c>
       <c r="E24" t="n">
-        <v>9731771.037211385</v>
+        <v>7712344.914213844</v>
       </c>
       <c r="F24" t="n">
-        <v>9708125.94493524</v>
+        <v>8519013.257032797</v>
       </c>
       <c r="G24" t="n">
-        <v>9687342.543995026</v>
+        <v>7736843.024508044</v>
       </c>
       <c r="H24" t="n">
-        <v>9670244.121692933</v>
+        <v>8302187.748240199</v>
       </c>
       <c r="I24" t="n">
-        <v>9656399.091765858</v>
+        <v>7865645.417246005</v>
       </c>
       <c r="J24" t="n">
-        <v>9644263.757201888</v>
+        <v>7866846.411135925</v>
       </c>
       <c r="K24" t="n">
-        <v>9631720.249780662</v>
+        <v>8133246.206405263</v>
       </c>
       <c r="L24" t="n">
-        <v>9616819.777883478</v>
+        <v>7607898.908919076</v>
       </c>
       <c r="M24" t="n">
-        <v>9598462.289074115</v>
+        <v>8379221.779293464</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2640048.704511305</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="C25" t="n">
-        <v>2640047.898703323</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="D25" t="n">
-        <v>2640046.853328899</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="E25" t="n">
-        <v>2640046.081013288</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="F25" t="n">
-        <v>2640045.960480392</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="G25" t="n">
-        <v>2640046.550836445</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="H25" t="n">
-        <v>2640047.562585918</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="I25" t="n">
-        <v>2640048.499592482</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="J25" t="n">
-        <v>2640048.90237159</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="K25" t="n">
-        <v>2640048.573410371</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="L25" t="n">
-        <v>2640047.67402323</v>
+        <v>4619188.996498532</v>
       </c>
       <c r="M25" t="n">
-        <v>2640046.645247126</v>
+        <v>4619188.996498532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7793634.374969542</v>
+        <v>10055287.69285702</v>
       </c>
       <c r="C26" t="n">
-        <v>7793976.732682526</v>
+        <v>10036539.52744916</v>
       </c>
       <c r="D26" t="n">
-        <v>7793959.632425427</v>
+        <v>10018118.60145866</v>
       </c>
       <c r="E26" t="n">
-        <v>7794374.49816972</v>
+        <v>9999124.741756374</v>
       </c>
       <c r="F26" t="n">
-        <v>7794928.003639221</v>
+        <v>9979724.484369248</v>
       </c>
       <c r="G26" t="n">
-        <v>7795325.397270679</v>
+        <v>9960870.184824312</v>
       </c>
       <c r="H26" t="n">
-        <v>7795785.435347497</v>
+        <v>9942695.576302586</v>
       </c>
       <c r="I26" t="n">
-        <v>7796279.726191342</v>
+        <v>9924290.178669075</v>
       </c>
       <c r="J26" t="n">
-        <v>7796856.544349551</v>
+        <v>9905232.579195637</v>
       </c>
       <c r="K26" t="n">
-        <v>7797409.715931654</v>
+        <v>9886299.980483554</v>
       </c>
       <c r="L26" t="n">
-        <v>7797734.545697212</v>
+        <v>9868158.702034855</v>
       </c>
       <c r="M26" t="n">
-        <v>7798139.3040874</v>
+        <v>9850241.581663629</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13514741.50524601</v>
+        <v>3230175.766589435</v>
       </c>
       <c r="C27" t="n">
-        <v>13423672.57000447</v>
+        <v>3229108.06460591</v>
       </c>
       <c r="D27" t="n">
-        <v>13333217.30176965</v>
+        <v>3227756.474181835</v>
       </c>
       <c r="E27" t="n">
-        <v>13243371.56535325</v>
+        <v>3226128.693792695</v>
       </c>
       <c r="F27" t="n">
-        <v>13154131.25343188</v>
+        <v>3224233.95547105</v>
       </c>
       <c r="G27" t="n">
-        <v>13065492.28635934</v>
+        <v>3222082.969771314</v>
       </c>
       <c r="H27" t="n">
-        <v>12977450.61198004</v>
+        <v>3219687.862700344</v>
       </c>
       <c r="I27" t="n">
-        <v>12890002.20544383</v>
+        <v>3217062.105040686</v>
       </c>
       <c r="J27" t="n">
-        <v>12803143.06902194</v>
+        <v>3214220.434529414</v>
       </c>
       <c r="K27" t="n">
-        <v>12716869.23192425</v>
+        <v>3211178.771387428</v>
       </c>
       <c r="L27" t="n">
-        <v>12631176.7501178</v>
+        <v>3207954.127721865</v>
       </c>
       <c r="M27" t="n">
-        <v>12546061.70614642</v>
+        <v>3204564.511348123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13199079.36099422</v>
+        <v>9790918.979968501</v>
       </c>
       <c r="C28" t="n">
-        <v>11599919.3342763</v>
+        <v>9424731.936813273</v>
       </c>
       <c r="D28" t="n">
-        <v>9997734.218952455</v>
+        <v>9722311.442343235</v>
       </c>
       <c r="E28" t="n">
-        <v>8509148.237010568</v>
+        <v>9512103.693185342</v>
       </c>
       <c r="F28" t="n">
-        <v>7199363.659155259</v>
+        <v>9526087.437316295</v>
       </c>
       <c r="G28" t="n">
-        <v>6092934.198411407</v>
+        <v>9660142.164244456</v>
       </c>
       <c r="H28" t="n">
-        <v>5187300.416969277</v>
+        <v>9362367.722051164</v>
       </c>
       <c r="I28" t="n">
-        <v>4464368.757307419</v>
+        <v>9696667.733444616</v>
       </c>
       <c r="J28" t="n">
-        <v>3898916.168566725</v>
+        <v>9356665.250116846</v>
       </c>
       <c r="K28" t="n">
-        <v>3464034.572961567</v>
+        <v>9559400.394892685</v>
       </c>
       <c r="L28" t="n">
-        <v>3134284.004752391</v>
+        <v>9490779.846220275</v>
       </c>
       <c r="M28" t="n">
-        <v>2887254.50134145</v>
+        <v>9356356.359828223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5017667.899884224</v>
+        <v>1704379.330535945</v>
       </c>
       <c r="C29" t="n">
-        <v>5017502.351784647</v>
+        <v>1598426.471295867</v>
       </c>
       <c r="D29" t="n">
-        <v>5017336.813763589</v>
+        <v>1503882.625637249</v>
       </c>
       <c r="E29" t="n">
-        <v>5017171.285820603</v>
+        <v>1419519.270069317</v>
       </c>
       <c r="F29" t="n">
-        <v>5017005.767954916</v>
+        <v>1344240.168606553</v>
       </c>
       <c r="G29" t="n">
-        <v>5016840.260165989</v>
+        <v>1277067.128039824</v>
       </c>
       <c r="H29" t="n">
-        <v>5016674.762453318</v>
+        <v>1217127.287081021</v>
       </c>
       <c r="I29" t="n">
-        <v>5016509.274815768</v>
+        <v>1163641.774213584</v>
       </c>
       <c r="J29" t="n">
-        <v>5016343.797253489</v>
+        <v>1115915.586866578</v>
       </c>
       <c r="K29" t="n">
-        <v>5016178.329765439</v>
+        <v>1073328.560400088</v>
       </c>
       <c r="L29" t="n">
-        <v>5016012.87235111</v>
+        <v>1035327.309550977</v>
       </c>
       <c r="M29" t="n">
-        <v>5015847.425009638</v>
+        <v>1001418.037624381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31909185.71653415</v>
+        <v>477423.9531658766</v>
       </c>
       <c r="C30" t="n">
-        <v>31909185.7172364</v>
+        <v>471028.3320843313</v>
       </c>
       <c r="D30" t="n">
-        <v>31909185.7179094</v>
+        <v>464736.882447093</v>
       </c>
       <c r="E30" t="n">
-        <v>31909185.71855313</v>
+        <v>458547.9074834889</v>
       </c>
       <c r="F30" t="n">
-        <v>31909185.71916759</v>
+        <v>452459.7380691981</v>
       </c>
       <c r="G30" t="n">
-        <v>31909185.71975273</v>
+        <v>446470.7322758856</v>
       </c>
       <c r="H30" t="n">
-        <v>31909185.72030853</v>
+        <v>440579.2749281405</v>
       </c>
       <c r="I30" t="n">
-        <v>31909185.72083497</v>
+        <v>434783.7771675968</v>
       </c>
       <c r="J30" t="n">
-        <v>31909185.72133204</v>
+        <v>429082.676024123</v>
       </c>
       <c r="K30" t="n">
-        <v>31909185.72179968</v>
+        <v>423474.4339939652</v>
       </c>
       <c r="L30" t="n">
-        <v>31909185.72223791</v>
+        <v>417957.5386247312</v>
       </c>
       <c r="M30" t="n">
-        <v>31909185.72264669</v>
+        <v>412530.5021071027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37154658.41550654</v>
+        <v>691878.3410526372</v>
       </c>
       <c r="C31" t="n">
-        <v>36845314.31211205</v>
+        <v>691296.9170187372</v>
       </c>
       <c r="D31" t="n">
-        <v>36554354.07709213</v>
+        <v>690716.2658921073</v>
       </c>
       <c r="E31" t="n">
-        <v>36256383.3490639</v>
+        <v>690136.3862487467</v>
       </c>
       <c r="F31" t="n">
-        <v>35977162.64868268</v>
+        <v>689557.2774262796</v>
       </c>
       <c r="G31" t="n">
-        <v>35690256.22252861</v>
+        <v>688978.9395075906</v>
       </c>
       <c r="H31" t="n">
-        <v>35422186.56406568</v>
+        <v>688401.3732750709</v>
       </c>
       <c r="I31" t="n">
-        <v>35146056.99846065</v>
+        <v>687824.5801373078</v>
       </c>
       <c r="J31" t="n">
-        <v>34888564.42911792</v>
+        <v>687248.5620310956</v>
       </c>
       <c r="K31" t="n">
-        <v>34622941.9977787</v>
+        <v>686673.3213026368</v>
       </c>
       <c r="L31" t="n">
-        <v>34375469.70699886</v>
+        <v>686098.8605726445</v>
       </c>
       <c r="M31" t="n">
-        <v>34120098.48681437</v>
+        <v>685525.1825906485</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1183366.316965674</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1163171.871756943</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1166674.794374013</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1128181.422902701</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1229566.665068247</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1225759.577668629</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1161404.267533293</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1187818.824672047</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1114884.216728343</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1200872.176522312</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1090286.998745843</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1043546.756959087</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2846452.258292098</v>
+        <v>1343440.775401544</v>
       </c>
       <c r="C33" t="n">
-        <v>2519448.645878494</v>
+        <v>1343973.836850994</v>
       </c>
       <c r="D33" t="n">
-        <v>2438532.79063851</v>
+        <v>1344503.707178389</v>
       </c>
       <c r="E33" t="n">
-        <v>2390803.068109702</v>
+        <v>1345030.377714733</v>
       </c>
       <c r="F33" t="n">
-        <v>2855965.213330328</v>
+        <v>1345553.839911798</v>
       </c>
       <c r="G33" t="n">
-        <v>3135087.675396433</v>
+        <v>1346074.085341435</v>
       </c>
       <c r="H33" t="n">
-        <v>2958924.440708221</v>
+        <v>1346591.105694873</v>
       </c>
       <c r="I33" t="n">
-        <v>2843010.774490073</v>
+        <v>1347104.892782006</v>
       </c>
       <c r="J33" t="n">
-        <v>2526086.397899519</v>
+        <v>1347615.43853071</v>
       </c>
       <c r="K33" t="n">
-        <v>2418332.957740272</v>
+        <v>1348122.734986156</v>
       </c>
       <c r="L33" t="n">
-        <v>2366136.251538018</v>
+        <v>1348626.774310108</v>
       </c>
       <c r="M33" t="n">
-        <v>2783309.901589464</v>
+        <v>1349127.54878024</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5330185.899837933</v>
+        <v>2667044.149224382</v>
       </c>
       <c r="C34" t="n">
-        <v>5331234.136067377</v>
+        <v>2655503.541104422</v>
       </c>
       <c r="D34" t="n">
-        <v>5332274.384531796</v>
+        <v>2642726.633235161</v>
       </c>
       <c r="E34" t="n">
-        <v>5333306.633524368</v>
+        <v>2631972.821441491</v>
       </c>
       <c r="F34" t="n">
-        <v>5334330.871505523</v>
+        <v>2623193.932931484</v>
       </c>
       <c r="G34" t="n">
-        <v>5335347.087102102</v>
+        <v>2613112.180470462</v>
       </c>
       <c r="H34" t="n">
-        <v>5336355.269106596</v>
+        <v>2600827.885246324</v>
       </c>
       <c r="I34" t="n">
-        <v>5337355.406476246</v>
+        <v>2589353.205879548</v>
       </c>
       <c r="J34" t="n">
-        <v>5338347.48833232</v>
+        <v>2580463.198644363</v>
       </c>
       <c r="K34" t="n">
-        <v>5339331.503959252</v>
+        <v>2571656.256083109</v>
       </c>
       <c r="L34" t="n">
-        <v>5340307.442803849</v>
+        <v>2560433.0261631</v>
       </c>
       <c r="M34" t="n">
-        <v>5341275.294474513</v>
+        <v>2548568.285567547</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4975982.446590902</v>
+        <v>944413.0664217842</v>
       </c>
       <c r="C35" t="n">
-        <v>4600400.447846296</v>
+        <v>946411.4378396494</v>
       </c>
       <c r="D35" t="n">
-        <v>4270266.222266456</v>
+        <v>948857.4224878822</v>
       </c>
       <c r="E35" t="n">
-        <v>3980080.876771124</v>
+        <v>950500.7510502259</v>
       </c>
       <c r="F35" t="n">
-        <v>3725010.811906792</v>
+        <v>953262.0793309617</v>
       </c>
       <c r="G35" t="n">
-        <v>3500807.230078091</v>
+        <v>954556.7986926066</v>
       </c>
       <c r="H35" t="n">
-        <v>3303735.382223779</v>
+        <v>957624.6354647116</v>
       </c>
       <c r="I35" t="n">
-        <v>3130512.374713708</v>
+        <v>958581.634134393</v>
       </c>
       <c r="J35" t="n">
-        <v>2978252.500792701</v>
+        <v>961942.7182498616</v>
       </c>
       <c r="K35" t="n">
-        <v>2844419.186200193</v>
+        <v>962577.1708208073</v>
       </c>
       <c r="L35" t="n">
-        <v>2726782.748737409</v>
+        <v>966213.9746509558</v>
       </c>
       <c r="M35" t="n">
-        <v>2623383.268370966</v>
+        <v>966545.1173521543</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2710879.4166399</v>
+        <v>988246.9194527824</v>
       </c>
       <c r="C36" t="n">
-        <v>2700194.148761295</v>
+        <v>988246.9194473082</v>
       </c>
       <c r="D36" t="n">
-        <v>2688988.120108304</v>
+        <v>988246.919439352</v>
       </c>
       <c r="E36" t="n">
-        <v>2677322.146467693</v>
+        <v>988246.9194289136</v>
       </c>
       <c r="F36" t="n">
-        <v>2665259.31443216</v>
+        <v>988246.9194159935</v>
       </c>
       <c r="G36" t="n">
-        <v>2652864.669283639</v>
+        <v>988246.9194005926</v>
       </c>
       <c r="H36" t="n">
-        <v>2640204.89725221</v>
+        <v>988246.91938271</v>
       </c>
       <c r="I36" t="n">
-        <v>2627348.002997342</v>
+        <v>988246.9193623469</v>
       </c>
       <c r="J36" t="n">
-        <v>2614362.983097356</v>
+        <v>988246.9193395035</v>
       </c>
       <c r="K36" t="n">
-        <v>2601319.496286897</v>
+        <v>988246.9193141802</v>
       </c>
       <c r="L36" t="n">
-        <v>2588287.531152468</v>
+        <v>988246.9192863777</v>
       </c>
       <c r="M36" t="n">
-        <v>2575337.071983637</v>
+        <v>988246.9192560967</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4812604.678113762</v>
+        <v>3048918.725395471</v>
       </c>
       <c r="C37" t="n">
-        <v>4812613.69327159</v>
+        <v>2996878.069711876</v>
       </c>
       <c r="D37" t="n">
-        <v>4812604.149845849</v>
+        <v>2952601.518313631</v>
       </c>
       <c r="E37" t="n">
-        <v>4812603.30811351</v>
+        <v>2915360.909680068</v>
       </c>
       <c r="F37" t="n">
-        <v>4812609.864187729</v>
+        <v>2884496.835033585</v>
       </c>
       <c r="G37" t="n">
-        <v>4812603.016145465</v>
+        <v>2859318.352844766</v>
       </c>
       <c r="H37" t="n">
-        <v>4812604.989060964</v>
+        <v>2839047.893926905</v>
       </c>
       <c r="I37" t="n">
-        <v>4812610.272259183</v>
+        <v>2822816.503721447</v>
       </c>
       <c r="J37" t="n">
-        <v>4812609.91585559</v>
+        <v>2809703.56906103</v>
       </c>
       <c r="K37" t="n">
-        <v>4812609.80896374</v>
+        <v>2798806.879558092</v>
       </c>
       <c r="L37" t="n">
-        <v>4812608.406285962</v>
+        <v>2789324.926644305</v>
       </c>
       <c r="M37" t="n">
-        <v>4812606.955985282</v>
+        <v>2780633.283013212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2640635.385784485</v>
+        <v>3589126.618988808</v>
       </c>
       <c r="C38" t="n">
-        <v>2638754.230427256</v>
+        <v>3617222.130567236</v>
       </c>
       <c r="D38" t="n">
-        <v>2636874.415181387</v>
+        <v>3615462.863423503</v>
       </c>
       <c r="E38" t="n">
-        <v>2634995.939092201</v>
+        <v>3563894.485356869</v>
       </c>
       <c r="F38" t="n">
-        <v>2633118.801205696</v>
+        <v>3586822.291171066</v>
       </c>
       <c r="G38" t="n">
-        <v>2631243.000568556</v>
+        <v>3593062.772117594</v>
       </c>
       <c r="H38" t="n">
-        <v>2629368.536228141</v>
+        <v>3539839.738968411</v>
       </c>
       <c r="I38" t="n">
-        <v>2627495.407232491</v>
+        <v>3556551.492776</v>
       </c>
       <c r="J38" t="n">
-        <v>2625623.612630321</v>
+        <v>3570302.275684121</v>
       </c>
       <c r="K38" t="n">
-        <v>2623753.151471027</v>
+        <v>3516906.513508039</v>
       </c>
       <c r="L38" t="n">
-        <v>2621884.022804682</v>
+        <v>3526560.523364093</v>
       </c>
       <c r="M38" t="n">
-        <v>2620016.225682034</v>
+        <v>3547091.777051869</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2659246.357667692</v>
+        <v>3541614.461997002</v>
       </c>
       <c r="C39" t="n">
-        <v>2659246.357659599</v>
+        <v>3541421.378229802</v>
       </c>
       <c r="D39" t="n">
-        <v>2659246.35765067</v>
+        <v>3541228.304989255</v>
       </c>
       <c r="E39" t="n">
-        <v>2659246.357640905</v>
+        <v>3541035.242274784</v>
       </c>
       <c r="F39" t="n">
-        <v>2659246.357630305</v>
+        <v>3540842.190085818</v>
       </c>
       <c r="G39" t="n">
-        <v>2659246.357618869</v>
+        <v>3540649.148421784</v>
       </c>
       <c r="H39" t="n">
-        <v>2659246.357606598</v>
+        <v>3540456.117282103</v>
       </c>
       <c r="I39" t="n">
-        <v>2659246.357593493</v>
+        <v>3540263.096666204</v>
       </c>
       <c r="J39" t="n">
-        <v>2659246.357579553</v>
+        <v>3540070.086573516</v>
       </c>
       <c r="K39" t="n">
-        <v>2659246.357564777</v>
+        <v>3539877.087003461</v>
       </c>
       <c r="L39" t="n">
-        <v>2659246.357549167</v>
+        <v>3539684.097955467</v>
       </c>
       <c r="M39" t="n">
-        <v>2659246.357532723</v>
+        <v>3539491.119428962</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10496468.80324789</v>
+        <v>4080602.709547077</v>
       </c>
       <c r="C40" t="n">
-        <v>10460972.48716219</v>
+        <v>4042583.197453666</v>
       </c>
       <c r="D40" t="n">
-        <v>10453577.87901034</v>
+        <v>4004917.918154452</v>
       </c>
       <c r="E40" t="n">
-        <v>10434286.05306234</v>
+        <v>3967603.57121591</v>
       </c>
       <c r="F40" t="n">
-        <v>10392350.06675789</v>
+        <v>3930636.886955082</v>
       </c>
       <c r="G40" t="n">
-        <v>10364729.65809221</v>
+        <v>3894014.626153078</v>
       </c>
       <c r="H40" t="n">
-        <v>10358854.61277355</v>
+        <v>3857733.579771235</v>
       </c>
       <c r="I40" t="n">
-        <v>10333386.354769</v>
+        <v>3821790.568669928</v>
       </c>
       <c r="J40" t="n">
-        <v>10290739.90722345</v>
+        <v>3786182.443329992</v>
       </c>
       <c r="K40" t="n">
-        <v>10271668.88820538</v>
+        <v>3750906.083576747</v>
       </c>
       <c r="L40" t="n">
-        <v>10264212.26779598</v>
+        <v>3715958.398306591</v>
       </c>
       <c r="M40" t="n">
-        <v>10232738.90439373</v>
+        <v>3681336.325216139</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6875510.618152067</v>
+        <v>2635586.051082143</v>
       </c>
       <c r="C41" t="n">
-        <v>6875847.785611233</v>
+        <v>2631719.340836731</v>
       </c>
       <c r="D41" t="n">
-        <v>6876512.807766783</v>
+        <v>2625688.259072076</v>
       </c>
       <c r="E41" t="n">
-        <v>6877200.678890087</v>
+        <v>2617214.074109816</v>
       </c>
       <c r="F41" t="n">
-        <v>6877595.885179041</v>
+        <v>2609314.592181096</v>
       </c>
       <c r="G41" t="n">
-        <v>6877517.123693033</v>
+        <v>2604277.242741626</v>
       </c>
       <c r="H41" t="n">
-        <v>6877000.509120976</v>
+        <v>2600604.833781196</v>
       </c>
       <c r="I41" t="n">
-        <v>6876283.027893484</v>
+        <v>2595015.971895133</v>
       </c>
       <c r="J41" t="n">
-        <v>6875693.797581596</v>
+        <v>2586820.965696258</v>
       </c>
       <c r="K41" t="n">
-        <v>6875503.072229402</v>
+        <v>2578843.071170602</v>
       </c>
       <c r="L41" t="n">
-        <v>6875798.30745484</v>
+        <v>2573651.881885593</v>
       </c>
       <c r="M41" t="n">
-        <v>6876444.089748254</v>
+        <v>2570132.100983975</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8175336.556017962</v>
+        <v>2991810.656091</v>
       </c>
       <c r="C42" t="n">
-        <v>8087691.201205932</v>
+        <v>2991811.210870391</v>
       </c>
       <c r="D42" t="n">
-        <v>8000985.466208634</v>
+        <v>2991813.494788527</v>
       </c>
       <c r="E42" t="n">
-        <v>7915209.277641137</v>
+        <v>2991799.73902628</v>
       </c>
       <c r="F42" t="n">
-        <v>7830352.67011228</v>
+        <v>2991812.056188121</v>
       </c>
       <c r="G42" t="n">
-        <v>7746405.785066904</v>
+        <v>2991808.831748959</v>
       </c>
       <c r="H42" t="n">
-        <v>7663358.869640484</v>
+        <v>2991794.376848191</v>
       </c>
       <c r="I42" t="n">
-        <v>7581202.275526063</v>
+        <v>2991829.432020394</v>
       </c>
       <c r="J42" t="n">
-        <v>7499926.457853318</v>
+        <v>2991811.440083178</v>
       </c>
       <c r="K42" t="n">
-        <v>7419521.97407964</v>
+        <v>2991823.818421555</v>
       </c>
       <c r="L42" t="n">
-        <v>7339979.482893125</v>
+        <v>2991829.229360037</v>
       </c>
       <c r="M42" t="n">
-        <v>7261289.743127289</v>
+        <v>2991820.955013254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4631494.100275626</v>
+        <v>2575203.249180939</v>
       </c>
       <c r="C43" t="n">
-        <v>4631515.80218749</v>
+        <v>2575200.991764336</v>
       </c>
       <c r="D43" t="n">
-        <v>4631520.503906579</v>
+        <v>2575201.822812728</v>
       </c>
       <c r="E43" t="n">
-        <v>4631457.05624422</v>
+        <v>2575207.446486565</v>
       </c>
       <c r="F43" t="n">
-        <v>4631457.075273418</v>
+        <v>2575202.122353463</v>
       </c>
       <c r="G43" t="n">
-        <v>4631437.367843482</v>
+        <v>2575202.277324451</v>
       </c>
       <c r="H43" t="n">
-        <v>4631466.929376259</v>
+        <v>2575203.890418795</v>
       </c>
       <c r="I43" t="n">
-        <v>4631559.482971287</v>
+        <v>2575203.022397111</v>
       </c>
       <c r="J43" t="n">
-        <v>4631521.431472071</v>
+        <v>2575202.449365465</v>
       </c>
       <c r="K43" t="n">
-        <v>4631537.029072179</v>
+        <v>2575203.961704991</v>
       </c>
       <c r="L43" t="n">
-        <v>4631502.448418678</v>
+        <v>2575198.956372474</v>
       </c>
       <c r="M43" t="n">
-        <v>4631467.587567982</v>
+        <v>2575207.829102272</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10475323.2508547</v>
+        <v>4936964.554471556</v>
       </c>
       <c r="C44" t="n">
-        <v>9822102.146541016</v>
+        <v>4934537.534394538</v>
       </c>
       <c r="D44" t="n">
-        <v>9287982.877598172</v>
+        <v>4932112.734147877</v>
       </c>
       <c r="E44" t="n">
-        <v>8851146.58489418</v>
+        <v>4929690.160345301</v>
       </c>
       <c r="F44" t="n">
-        <v>8494150.020923635</v>
+        <v>4927269.81994213</v>
       </c>
       <c r="G44" t="n">
-        <v>8202076.935961077</v>
+        <v>4924851.720118821</v>
       </c>
       <c r="H44" t="n">
-        <v>7963427.650341491</v>
+        <v>4922435.868161658</v>
       </c>
       <c r="I44" t="n">
-        <v>7768481.889524756</v>
+        <v>4920022.271342115</v>
       </c>
       <c r="J44" t="n">
-        <v>7608863.845974475</v>
+        <v>4917610.936796416</v>
       </c>
       <c r="K44" t="n">
-        <v>7478463.288019484</v>
+        <v>4915201.871406878</v>
       </c>
       <c r="L44" t="n">
-        <v>7371787.791155288</v>
+        <v>4912795.081686542</v>
       </c>
       <c r="M44" t="n">
-        <v>7284508.816006333</v>
+        <v>4910390.573668556</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4303749.389302382</v>
+        <v>2646635.564568253</v>
       </c>
       <c r="C45" t="n">
-        <v>4291170.251386452</v>
+        <v>2622230.079979387</v>
       </c>
       <c r="D45" t="n">
-        <v>4279163.759989538</v>
+        <v>2598359.16593033</v>
       </c>
       <c r="E45" t="n">
-        <v>4267157.880294329</v>
+        <v>2575244.052640649</v>
       </c>
       <c r="F45" t="n">
-        <v>4254695.694053032</v>
+        <v>2552558.58096781</v>
       </c>
       <c r="G45" t="n">
-        <v>4242316.000485178</v>
+        <v>2530394.346991121</v>
       </c>
       <c r="H45" t="n">
-        <v>4230513.668540244</v>
+        <v>2508934.95857687</v>
       </c>
       <c r="I45" t="n">
-        <v>4218784.696798428</v>
+        <v>2487846.770329162</v>
       </c>
       <c r="J45" t="n">
-        <v>4206597.639593629</v>
+        <v>2467270.27969139</v>
       </c>
       <c r="K45" t="n">
-        <v>4194417.947559169</v>
+        <v>2447346.175666032</v>
       </c>
       <c r="L45" t="n">
-        <v>4182809.784990841</v>
+        <v>2427741.75484269</v>
       </c>
       <c r="M45" t="n">
-        <v>4171347.463605626</v>
+        <v>2408642.283217291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9323631.754149256</v>
+        <v>2040121.337833723</v>
       </c>
       <c r="C46" t="n">
-        <v>9097962.435188873</v>
+        <v>2040121.337833676</v>
       </c>
       <c r="D46" t="n">
-        <v>8885128.819164364</v>
+        <v>2040121.337833626</v>
       </c>
       <c r="E46" t="n">
-        <v>8684400.829757787</v>
+        <v>2040121.337833574</v>
       </c>
       <c r="F46" t="n">
-        <v>8495089.916283291</v>
+        <v>2040121.337833519</v>
       </c>
       <c r="G46" t="n">
-        <v>8316546.691772666</v>
+        <v>2040121.337833463</v>
       </c>
       <c r="H46" t="n">
-        <v>8148158.705403006</v>
+        <v>2040121.337833404</v>
       </c>
       <c r="I46" t="n">
-        <v>7989348.341625282</v>
+        <v>2040121.337833343</v>
       </c>
       <c r="J46" t="n">
-        <v>7839570.838787269</v>
+        <v>2040121.337833279</v>
       </c>
       <c r="K46" t="n">
-        <v>7698312.420454195</v>
+        <v>2040121.337833213</v>
       </c>
       <c r="L46" t="n">
-        <v>7565088.533017006</v>
+        <v>2040121.337833143</v>
       </c>
       <c r="M46" t="n">
-        <v>7439442.183542788</v>
+        <v>2040121.337833073</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1897764.37649635</v>
+        <v>1715230.376262893</v>
       </c>
       <c r="C47" t="n">
-        <v>1884296.886068148</v>
+        <v>1569619.662001379</v>
       </c>
       <c r="D47" t="n">
-        <v>1870970.234056279</v>
+        <v>1444853.97367356</v>
       </c>
       <c r="E47" t="n">
-        <v>1857782.91668891</v>
+        <v>1337949.223821449</v>
       </c>
       <c r="F47" t="n">
-        <v>1844733.445828246</v>
+        <v>1246348.514571051</v>
       </c>
       <c r="G47" t="n">
-        <v>1831820.348810196</v>
+        <v>1167860.982943284</v>
       </c>
       <c r="H47" t="n">
-        <v>1819042.16828568</v>
+        <v>1100609.400816557</v>
       </c>
       <c r="I47" t="n">
-        <v>1806397.462063549</v>
+        <v>1042985.276261367</v>
       </c>
       <c r="J47" t="n">
-        <v>1793884.802955129</v>
+        <v>993610.3823816208</v>
       </c>
       <c r="K47" t="n">
-        <v>1781502.778620334</v>
+        <v>951303.7935274818</v>
       </c>
       <c r="L47" t="n">
-        <v>1769249.991415373</v>
+        <v>915053.6404672554</v>
       </c>
       <c r="M47" t="n">
-        <v>1757125.058241986</v>
+        <v>883992.9089717343</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>467485.6175173511</v>
+        <v>3104464.407028554</v>
       </c>
       <c r="C48" t="n">
-        <v>465502.0956294517</v>
+        <v>3104476.50740436</v>
       </c>
       <c r="D48" t="n">
-        <v>463526.989741815</v>
+        <v>3104488.470716033</v>
       </c>
       <c r="E48" t="n">
-        <v>461560.2641457046</v>
+        <v>3104500.296958942</v>
       </c>
       <c r="F48" t="n">
-        <v>459601.8832838944</v>
+        <v>3104511.986128526</v>
       </c>
       <c r="G48" t="n">
-        <v>457651.8117500262</v>
+        <v>3104523.538220278</v>
       </c>
       <c r="H48" t="n">
-        <v>455710.0142879703</v>
+        <v>3104534.953229761</v>
       </c>
       <c r="I48" t="n">
-        <v>453776.455791186</v>
+        <v>3104546.231152581</v>
       </c>
       <c r="J48" t="n">
-        <v>451851.1013020896</v>
+        <v>3104557.371984407</v>
       </c>
       <c r="K48" t="n">
-        <v>449933.9160114194</v>
+        <v>3104568.375720975</v>
       </c>
       <c r="L48" t="n">
-        <v>448024.8652576089</v>
+        <v>3104579.242358072</v>
       </c>
       <c r="M48" t="n">
-        <v>446123.9145261603</v>
+        <v>3104589.971891541</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>706501.2208445588</v>
+        <v>1.938363113187161e-187</v>
       </c>
       <c r="C49" t="n">
-        <v>702475.9646893921</v>
+        <v>2.366660514655346e-187</v>
       </c>
       <c r="D49" t="n">
-        <v>698489.7788585318</v>
+        <v>1.946209624655298e-187</v>
       </c>
       <c r="E49" t="n">
-        <v>694548.6619310186</v>
+        <v>4.07818311848077e-187</v>
       </c>
       <c r="F49" t="n">
-        <v>690657.177351666</v>
+        <v>2.488779100531827e-187</v>
       </c>
       <c r="G49" t="n">
-        <v>686816.9933353395</v>
+        <v>2.327873712440865e-187</v>
       </c>
       <c r="H49" t="n">
-        <v>683026.2745392884</v>
+        <v>3.299009264108223e-187</v>
       </c>
       <c r="I49" t="n">
-        <v>679280.1041653921</v>
+        <v>2.129903480294189e-187</v>
       </c>
       <c r="J49" t="n">
-        <v>675571.8116442978</v>
+        <v>3.241561808939167e-187</v>
       </c>
       <c r="K49" t="n">
-        <v>671894.8170565732</v>
+        <v>4.696421053589327e-187</v>
       </c>
       <c r="L49" t="n">
-        <v>668244.4496082747</v>
+        <v>4.606543386430173e-187</v>
       </c>
       <c r="M49" t="n">
-        <v>664619.2071829399</v>
+        <v>3.243967665373757e-187</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>993952.4222634144</v>
+        <v>1228186.755037082</v>
       </c>
       <c r="C50" t="n">
-        <v>993952.4224993447</v>
+        <v>1228186.977589715</v>
       </c>
       <c r="D50" t="n">
-        <v>993952.4227334743</v>
+        <v>1228187.200557442</v>
       </c>
       <c r="E50" t="n">
-        <v>993952.4229658025</v>
+        <v>1228187.420567836</v>
       </c>
       <c r="F50" t="n">
-        <v>993952.4231963265</v>
+        <v>1228187.641559523</v>
       </c>
       <c r="G50" t="n">
-        <v>993952.4234250486</v>
+        <v>1228187.863769048</v>
       </c>
       <c r="H50" t="n">
-        <v>993952.4236519693</v>
+        <v>1228188.083069438</v>
       </c>
       <c r="I50" t="n">
-        <v>993952.4238770856</v>
+        <v>1228188.302509999</v>
       </c>
       <c r="J50" t="n">
-        <v>993952.4241004011</v>
+        <v>1228188.523789871</v>
       </c>
       <c r="K50" t="n">
-        <v>993952.4243219141</v>
+        <v>1228188.74250694</v>
       </c>
       <c r="L50" t="n">
-        <v>993952.4245416245</v>
+        <v>1228188.960466935</v>
       </c>
       <c r="M50" t="n">
-        <v>993952.4247595319</v>
+        <v>1228189.180634301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2021157.881043847</v>
+        <v>2658804.204454979</v>
       </c>
       <c r="C51" t="n">
-        <v>1906918.479882889</v>
+        <v>2534161.028717488</v>
       </c>
       <c r="D51" t="n">
-        <v>1591397.212579251</v>
+        <v>2418995.781921018</v>
       </c>
       <c r="E51" t="n">
-        <v>1507740.503875668</v>
+        <v>2312589.323637912</v>
       </c>
       <c r="F51" t="n">
-        <v>1334978.792373332</v>
+        <v>2214276.967394155</v>
       </c>
       <c r="G51" t="n">
-        <v>1228507.408480664</v>
+        <v>2123444.357492273</v>
       </c>
       <c r="H51" t="n">
-        <v>1206446.521567562</v>
+        <v>2039523.658048327</v>
       </c>
       <c r="I51" t="n">
-        <v>1064989.594578022</v>
+        <v>1961990.03060139</v>
       </c>
       <c r="J51" t="n">
-        <v>1157644.995338612</v>
+        <v>1890358.378444053</v>
       </c>
       <c r="K51" t="n">
-        <v>978966.8955782752</v>
+        <v>1824180.337477168</v>
       </c>
       <c r="L51" t="n">
-        <v>1134869.380118285</v>
+        <v>1763041.494921429</v>
       </c>
       <c r="M51" t="n">
-        <v>938415.108447966</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2314577.857793026</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2308153.522682701</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2301747.018936947</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2295358.297063082</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2288987.307705801</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2282634.001646784</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2276298.329804324</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2269980.243232943</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2263679.693123019</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2257396.630800403</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2251131.007726047</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2244882.775495629</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>870517.6373699894</v>
-      </c>
-      <c r="C53" t="n">
-        <v>870517.6378729884</v>
-      </c>
-      <c r="D53" t="n">
-        <v>870517.6383749065</v>
-      </c>
-      <c r="E53" t="n">
-        <v>870517.6388757466</v>
-      </c>
-      <c r="F53" t="n">
-        <v>870517.6393755032</v>
-      </c>
-      <c r="G53" t="n">
-        <v>870517.6398741798</v>
-      </c>
-      <c r="H53" t="n">
-        <v>870517.6403717692</v>
-      </c>
-      <c r="I53" t="n">
-        <v>870517.6408682698</v>
-      </c>
-      <c r="J53" t="n">
-        <v>870517.6413636883</v>
-      </c>
-      <c r="K53" t="n">
-        <v>870517.6418580068</v>
-      </c>
-      <c r="L53" t="n">
-        <v>870517.6423512283</v>
-      </c>
-      <c r="M53" t="n">
-        <v>870517.6428433605</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1029215.28677249</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1029215.493630613</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1029218.363569444</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1029215.055113863</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1029216.837970125</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1029216.20287384</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1029214.127456786</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1029217.473280255</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1029214.902309472</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1029214.569936638</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1029216.943776358</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1029213.804401266</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3558368.372026115</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3518185.716509386</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3476558.317075223</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3433705.847141742</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3389841.727799015</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3345171.289140048</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3299890.369999933</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3254184.290174265</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3208227.137475807</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3162181.319332959</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3116197.335135575</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3070413.731283487</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3661441.383877251</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3652098.42412639</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3642836.648878856</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3633785.05385567</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3625006.296017176</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3616472.531792624</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3608075.869441544</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3599669.666268147</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3591124.889496645</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3582379.710739453</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3573463.113226407</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3564483.538670618</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3566454.202102756</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3566454.202454133</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3566454.202803958</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3566454.203152261</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3566454.203499021</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3566454.20384422</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3566454.204187874</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3566454.204529965</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3566454.204870502</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3566454.205209462</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3566454.205546848</v>
-      </c>
-      <c r="M57" t="n">
-        <v>3566454.205882662</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3691306.699858953</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3691266.065792828</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3691225.432174005</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3691184.799002479</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3691144.166278246</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3691103.534001299</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3691062.902171633</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3691022.270789245</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3690981.639854128</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3690941.009366279</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3690900.379325692</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3690859.749732362</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2344604.6227217</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2296785.396626515</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2247195.690248708</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2196620.638127709</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2145867.227487772</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2095744.507835296</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2047043.781824495</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2000519.550264857</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1956871.944741859</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1916731.303201825</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1880645.431752456</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1849069.956905761</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3094636.733140028</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3097036.885452268</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3099345.375237193</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3101562.007355888</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3103686.595232971</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3105718.96088376</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3107658.934940076</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3109506.356674635</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3111261.074024032</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3112922.943610326</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3114491.830761217</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3115967.609528774</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2500661.583419851</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5210253.917329588</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5203165.556055853</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5196051.32283214</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5189049.171277904</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5182051.373407075</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5174991.328055617</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5168020.819337381</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5161105.558789186</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5154116.373135528</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5147173.138004495</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5140325.316863573</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5133420.058367919</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2384909.279982551</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2384938.622461224</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2384965.590517226</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2384990.179158415</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2385012.383837438</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2385032.200452585</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2385049.62534856</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2385064.655317174</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2385077.28759793</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2385087.519878535</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2385095.35029532</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2385100.77743357</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2039275.444976326</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1709112.423512568</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1705471.371664034</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1701840.983261211</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1698221.227074355</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1694612.071965191</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1691013.486886635</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1687425.440882563</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1683847.903087463</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1680280.842726259</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1676724.22911396</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1673178.031655489</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1669642.219845345</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4344281.881869957</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4328310.403580713</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4312553.839688403</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4297116.836379079</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4282090.382064268</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4267546.82919185</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4253535.927494407</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4240082.086529519</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4227183.019514797</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4214809.845688503</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4202908.642967649</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4191403.373404548</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>626578.0986520988</v>
-      </c>
-      <c r="C67" t="n">
-        <v>624325.9632618392</v>
-      </c>
-      <c r="D67" t="n">
-        <v>622084.2061346197</v>
-      </c>
-      <c r="E67" t="n">
-        <v>619852.7793690641</v>
-      </c>
-      <c r="F67" t="n">
-        <v>617631.635284496</v>
-      </c>
-      <c r="G67" t="n">
-        <v>615420.7264200882</v>
-      </c>
-      <c r="H67" t="n">
-        <v>613220.0055337488</v>
-      </c>
-      <c r="I67" t="n">
-        <v>611029.4256010281</v>
-      </c>
-      <c r="J67" t="n">
-        <v>608848.9398142383</v>
-      </c>
-      <c r="K67" t="n">
-        <v>606678.5015814102</v>
-      </c>
-      <c r="L67" t="n">
-        <v>604518.0645252578</v>
-      </c>
-      <c r="M67" t="n">
-        <v>602367.582482253</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2705891.009270021</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2679389.700517677</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2653281.043344434</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2627559.210650586</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2602218.476184475</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2577253.194029608</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2552657.795621588</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2528426.81088966</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2504554.827952662</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2481036.540795951</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2457866.698045079</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2435040.144159533</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2625693.618242397</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2455903.460454168</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2301255.285692858</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2160398.720458749</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2032103.818683959</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1915250.321933191</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1808817.877386141</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1711877.128185887</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1623581.598355047</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1543160.301419571</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1469911.008199429</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1403194.114981238</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>21146771.19559855</v>
-      </c>
-      <c r="C70" t="n">
-        <v>18121197.88741592</v>
-      </c>
-      <c r="D70" t="n">
-        <v>14811480.4448021</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11662767.89094385</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8913966.522998979</v>
-      </c>
-      <c r="G70" t="n">
-        <v>6650569.742618646</v>
-      </c>
-      <c r="H70" t="n">
-        <v>4864273.48335509</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3499204.237285441</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2482105.367257083</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1739592.431585674</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1206578.221035109</v>
-      </c>
-      <c r="M70" t="n">
-        <v>829311.0689532416</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>12836631.74748078</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12836631.74304125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12836631.73860173</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12836631.73416224</v>
-      </c>
-      <c r="F71" t="n">
-        <v>12836631.72972269</v>
-      </c>
-      <c r="G71" t="n">
-        <v>12836631.72528317</v>
-      </c>
-      <c r="H71" t="n">
-        <v>12836631.72084366</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12836631.71640414</v>
-      </c>
-      <c r="J71" t="n">
-        <v>12836631.71196462</v>
-      </c>
-      <c r="K71" t="n">
-        <v>12836631.70752511</v>
-      </c>
-      <c r="L71" t="n">
-        <v>12836631.70308557</v>
-      </c>
-      <c r="M71" t="n">
-        <v>12836631.69864606</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3069401.39096847</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3065516.417004444</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3061638.82219656</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3057768.593597833</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3053905.718310554</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3050050.183484625</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3046201.97631577</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3042361.084043799</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3038527.493950797</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3034701.193359248</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3030882.16963028</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3027070.410161724</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7390535.138845153</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7300420.991465079</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7260530.032879872</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7179188.918678969</v>
-      </c>
-      <c r="F73" t="n">
-        <v>7111973.288290679</v>
-      </c>
-      <c r="G73" t="n">
-        <v>7067582.655312138</v>
-      </c>
-      <c r="H73" t="n">
-        <v>6977394.790555136</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6935079.480831187</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6869586.367812296</v>
-      </c>
-      <c r="K73" t="n">
-        <v>6793151.572929285</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6758486.230900716</v>
-      </c>
-      <c r="M73" t="n">
-        <v>6674735.468409522</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15839859.1638829</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15821674.21813166</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15803510.14960215</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15785366.93432628</v>
-      </c>
-      <c r="F74" t="n">
-        <v>15767244.54836349</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15749142.96780068</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15731062.16875223</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15713002.12735991</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15694962.81979292</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15676944.22224778</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15658946.31094836</v>
-      </c>
-      <c r="M74" t="n">
-        <v>15640969.06214583</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>19426357.67973126</v>
-      </c>
-      <c r="C75" t="n">
-        <v>19392876.69515171</v>
-      </c>
-      <c r="D75" t="n">
-        <v>19359453.41445815</v>
-      </c>
-      <c r="E75" t="n">
-        <v>19326087.73819891</v>
-      </c>
-      <c r="F75" t="n">
-        <v>19292779.5670938</v>
-      </c>
-      <c r="G75" t="n">
-        <v>19259528.80203368</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19226335.34408024</v>
-      </c>
-      <c r="I75" t="n">
-        <v>19193199.09446575</v>
-      </c>
-      <c r="J75" t="n">
-        <v>19160119.95459257</v>
-      </c>
-      <c r="K75" t="n">
-        <v>19127097.82603311</v>
-      </c>
-      <c r="L75" t="n">
-        <v>19094132.61052938</v>
-      </c>
-      <c r="M75" t="n">
-        <v>19061224.20999273</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>13199079.36099422</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11599919.3342763</v>
-      </c>
-      <c r="D76" t="n">
-        <v>9997734.218952455</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8509148.237010568</v>
-      </c>
-      <c r="F76" t="n">
-        <v>7199363.659155259</v>
-      </c>
-      <c r="G76" t="n">
-        <v>6092934.198411407</v>
-      </c>
-      <c r="H76" t="n">
-        <v>5187300.416969277</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4464368.757307419</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3898916.168566725</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3464034.572961567</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3134284.004752391</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2887254.50134145</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17295157.12702363</v>
-      </c>
-      <c r="C77" t="n">
-        <v>15551859.95124063</v>
-      </c>
-      <c r="D77" t="n">
-        <v>14051124.41984993</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12759200.60647774</v>
-      </c>
-      <c r="F77" t="n">
-        <v>11647034.53547692</v>
-      </c>
-      <c r="G77" t="n">
-        <v>10689614.78929482</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9865410.02862045</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9155884.775744475</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8545082.571621325</v>
-      </c>
-      <c r="K77" t="n">
-        <v>8019267.132284271</v>
-      </c>
-      <c r="L77" t="n">
-        <v>7566613.43460793</v>
-      </c>
-      <c r="M77" t="n">
-        <v>7176941.784269156</v>
+        <v>1706558.818631865</v>
       </c>
     </row>
   </sheetData>
